--- a/data/interim/zdt1/fitness_nsga2_1.xlsx
+++ b/data/interim/zdt1/fitness_nsga2_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="11">
   <si>
     <t>obj1</t>
   </si>
@@ -435,10 +435,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.02021021945724144</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B2">
-        <v>4.051725285674181</v>
+        <v>1.923544236344934</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -453,15 +453,15 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.9014022688463046</v>
+        <v>0.984787620987479</v>
       </c>
       <c r="B3">
-        <v>2.446516923887137</v>
+        <v>1.889357210184528</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -476,15 +476,15 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>225</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.3306045398349645</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B4">
-        <v>2.606126676337078</v>
+        <v>3.447036765469225</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -495,19 +495,19 @@
       <c r="E4">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>1.043518555583126</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.1944387522520912</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B5">
-        <v>3.358720900836814</v>
+        <v>2.857155328298312</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -519,18 +519,18 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.912777508159609</v>
+        <v>1.122543079738139</v>
       </c>
       <c r="G5">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3181408317320729</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B6">
-        <v>3.059093455922122</v>
+        <v>1.882448523001926</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -539,21 +539,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0.6233697235479255</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>264</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.9014022688463046</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B7">
-        <v>1.8508019203924</v>
+        <v>3.021104311902917</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -562,21 +562,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.1944387522520912</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B8">
-        <v>3.320483765480358</v>
+        <v>2.550205073117635</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -585,21 +585,21 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>346</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.05283621145657236</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B9">
-        <v>3.289737191328044</v>
+        <v>2.012474444061739</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -614,15 +614,15 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>425</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>0.3306045398349645</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B10">
-        <v>2.413674738750891</v>
+        <v>1.820662408948799</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -631,21 +631,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0.02021021945724144</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B11">
-        <v>3.06095112265931</v>
+        <v>1.85252932285407</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -654,21 +654,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>0.3181408317320729</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B12">
-        <v>2.256422013127934</v>
+        <v>2.379591599881967</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -683,15 +683,15 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>404</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>0.7633870992860383</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B13">
-        <v>2.132407583880062</v>
+        <v>2.28731537488353</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -700,21 +700,21 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>0.3306045398349645</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B14">
-        <v>2.54069048331504</v>
+        <v>3.17423186754902</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -723,21 +723,21 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>0.3306045398349645</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B15">
-        <v>2.51728527168976</v>
+        <v>2.59469783263275</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -746,21 +746,21 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>398</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>0.6857965370175607</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B16">
-        <v>2.219355484607881</v>
+        <v>1.810687025271013</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -769,21 +769,21 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>0.5085722124509446</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B17">
-        <v>2.47181441524806</v>
+        <v>3.138651677098089</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>292</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>0.6486870929170069</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B18">
-        <v>2.255558990136205</v>
+        <v>2.642258408427069</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -815,21 +815,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>319</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>0.02021021945724144</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B19">
-        <v>3.961247226695812</v>
+        <v>2.527391173778673</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -838,21 +838,21 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>418</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>0.02323358594871194</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B20">
-        <v>3.363775332066117</v>
+        <v>2.220398887884337</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -861,21 +861,21 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>315</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>0.02021021945724144</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B21">
-        <v>3.861149422005206</v>
+        <v>3.105674022992342</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -884,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>421</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>0.02021021945724144</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B22">
-        <v>3.927196690124958</v>
+        <v>2.102006628084934</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -907,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>354</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>0.02021021945724144</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B23">
-        <v>3.622197587353308</v>
+        <v>1.797160620159694</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -930,44 +930,44 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>372</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>0.02021021945724144</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B24">
-        <v>4.82879697459802</v>
+        <v>2.575533087327556</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>217</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>0.6486870929170069</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B25">
-        <v>2.159364768381945</v>
+        <v>1.851438288778688</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>369</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>0.03563487146729749</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B26">
-        <v>3.326548511644936</v>
+        <v>2.619056507428979</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -999,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>337</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>0.9014022688463046</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B27">
-        <v>2.092144095619813</v>
+        <v>1.499484295591448</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1022,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>0.3181408317320729</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B28">
-        <v>2.732839266985203</v>
+        <v>2.306689006662122</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>0.7633870992860383</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B29">
-        <v>2.088008486273828</v>
+        <v>1.658507372834356</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>0.5085722124509446</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B30">
-        <v>2.231108694172727</v>
+        <v>2.505714952035983</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1091,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>430</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>0.3306045398349645</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B31">
-        <v>2.402268740486704</v>
+        <v>3.067217310902121</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>429</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>0.5039143812902098</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B32">
-        <v>2.461678015073882</v>
+        <v>1.952028761427313</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1137,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>341</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>0.3181408317320729</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B33">
-        <v>2.538395435070804</v>
+        <v>2.970089452449985</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1166,15 +1166,15 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>0.6486870929170069</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B34">
-        <v>2.395257651127554</v>
+        <v>2.726027811207845</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1183,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>389</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>0.02323358594871194</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B35">
-        <v>3.405742441627941</v>
+        <v>2.808305209130974</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1206,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>0.3181408317320729</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B36">
-        <v>2.893718091104124</v>
+        <v>1.952685691495718</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1229,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>0.6486870929170069</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B37">
-        <v>2.169263125974111</v>
+        <v>1.857988126005593</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1252,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>0.1944387522520912</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B38">
-        <v>3.297144921056948</v>
+        <v>2.575392581453303</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1275,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>0.3306045398349645</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B39">
-        <v>2.430797058729778</v>
+        <v>2.397504222998421</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1298,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>0.6486870929170069</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B40">
-        <v>2.4492973686902</v>
+        <v>2.875422281312619</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1321,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>210</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>0.6857965370175607</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B41">
-        <v>2.031997749285953</v>
+        <v>3.138450250296221</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1344,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>374</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>0.1944387522520912</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B42">
-        <v>3.14151227534315</v>
+        <v>2.548107415048798</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1367,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>351</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>0.3181408317320729</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B43">
-        <v>2.659952912745133</v>
+        <v>2.744273136358168</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1396,15 +1396,15 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>349</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>0.3181408317320729</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B44">
-        <v>2.963633649268392</v>
+        <v>2.539981945789983</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1413,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>343</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>0.3306045398349645</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B45">
-        <v>2.317475572382757</v>
+        <v>3.066327779708711</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1436,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>0.02021021945724144</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B46">
-        <v>3.587472759750232</v>
+        <v>3.200390945260205</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1459,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>254</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>0.6486870929170069</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B47">
-        <v>2.192797291297462</v>
+        <v>3.050795185429685</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1482,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>0.3181408317320729</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B48">
-        <v>2.866224716554821</v>
+        <v>3.073525506752512</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1505,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>0.02323358594871194</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B49">
-        <v>3.418517885672608</v>
+        <v>2.626383906558819</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1528,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>0.05283621145657236</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B50">
-        <v>3.108043798111926</v>
+        <v>2.800960651613367</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1551,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>0.6486870929170069</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B51">
-        <v>2.071216756498035</v>
+        <v>3.123432111759914</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1574,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>396</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>0.9014022688463046</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B52">
-        <v>2.186379970965515</v>
+        <v>2.503961549050541</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1597,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>325</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>0.7633870992860383</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B53">
-        <v>2.400308394234836</v>
+        <v>3.172871903159758</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1620,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>311</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>0.3181408317320729</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B54">
-        <v>3.010512222452103</v>
+        <v>2.497788193962886</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1643,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>333</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>0.02323358594871194</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B55">
-        <v>3.351762791032747</v>
+        <v>2.791298862461451</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1666,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>381</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>0.6486870929170069</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B56">
-        <v>2.168683524612848</v>
+        <v>1.65870517080667</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1689,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>428</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>0.1944387522520912</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B57">
-        <v>3.26353425614705</v>
+        <v>1.71642042743456</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1712,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>247</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>0.02323358594871194</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B58">
-        <v>3.259196413356852</v>
+        <v>2.535739817000612</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1735,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>0.3181408317320729</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B59">
-        <v>2.892125236400722</v>
+        <v>1.638340127385871</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1758,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>0.3306045398349645</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B60">
-        <v>2.593575524665837</v>
+        <v>2.494358580567535</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>0.3306045398349645</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B61">
-        <v>1.987884435037765</v>
+        <v>2.465344243609466</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1804,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>367</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>0.6486870929170069</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B62">
-        <v>2.395257651127554</v>
+        <v>3.083036445810744</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1827,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>129</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>0.02323358594871194</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B63">
-        <v>3.460099511411546</v>
+        <v>2.97119453939197</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1850,44 +1850,44 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>0.6486870929170069</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B64">
-        <v>2.142020402169726</v>
+        <v>5.934356919657675</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>427</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>0.02021021945724144</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B65">
-        <v>3.557554418463021</v>
+        <v>2.626383906558819</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1896,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>0.1944387522520912</v>
+        <v>0.8721321349816732</v>
       </c>
       <c r="B66">
-        <v>3.146388826706112</v>
+        <v>1.858043293344795</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1919,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>366</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>0.7633870992860383</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B67">
-        <v>2.323912689669903</v>
+        <v>1.746815606778972</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1942,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>0.02323358594871194</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B68">
-        <v>3.391979818566011</v>
+        <v>2.767669716548315</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1965,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>378</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>0.3181408317320729</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B69">
-        <v>2.782892268609365</v>
+        <v>3.067742620333302</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1988,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>0.3306045398349645</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B70">
-        <v>2.509253600178371</v>
+        <v>2.736506045909483</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2017,15 +2017,15 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>0.02323358594871194</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B71">
-        <v>2.966016291317867</v>
+        <v>1.841117595358373</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -2034,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>0.02021021945724144</v>
+        <v>0.984787620987479</v>
       </c>
       <c r="B72">
-        <v>3.879054000299978</v>
+        <v>1.41966588230334</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2057,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>0.6486870929170069</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B73">
-        <v>2.395257651127554</v>
+        <v>1.695242783513073</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -2080,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>0.1944387522520912</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B74">
-        <v>3.154573042668141</v>
+        <v>2.626383906558819</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -2103,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>397</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>0.5907824995276433</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B75">
-        <v>2.573891527721834</v>
+        <v>3.182661891967573</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -2126,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>0.02021021945724144</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B76">
-        <v>3.826545970987564</v>
+        <v>3.096857967341058</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -2149,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>0.3306045398349645</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B77">
-        <v>2.502965627102068</v>
+        <v>1.865168770765748</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -2172,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>0.03563487146729749</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B78">
-        <v>3.455652067080296</v>
+        <v>2.403474851976993</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -2195,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>0.6857965370175607</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B79">
-        <v>1.900609624908352</v>
+        <v>1.76856647717446</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -2218,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>0.02021021945724144</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B80">
-        <v>3.417219947917569</v>
+        <v>2.251057399436798</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -2241,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>0.02323358594871194</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B81">
-        <v>3.053520071094588</v>
+        <v>1.576847268710461</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2264,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>0.02323358594871194</v>
+        <v>0.984787620987479</v>
       </c>
       <c r="B82">
-        <v>3.218924761633946</v>
+        <v>1.557683323065581</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -2287,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>0.6857965370175607</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B83">
-        <v>2.131253218555875</v>
+        <v>2.811726823456601</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -2310,44 +2310,32 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>431</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>0.1944387522520912</v>
+        <v>0.9155470806570238</v>
       </c>
       <c r="B84">
-        <v>3.117513937947837</v>
+        <v>0.04315775560595991</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>435</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>0.2967161100589998</v>
+        <v>0.4249229557910926</v>
       </c>
       <c r="B85">
-        <v>0.4552834589816463</v>
+        <v>0.348138852368779</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2355,10 +2343,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>0.3613426433763871</v>
+        <v>0.6626024834399813</v>
       </c>
       <c r="B86">
-        <v>0.3988821718029093</v>
+        <v>0.185996017552751</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2366,10 +2354,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>0.1785910290102384</v>
+        <v>0.4084974849060168</v>
       </c>
       <c r="B87">
-        <v>0.5773996817201408</v>
+        <v>0.3608619203129759</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2377,10 +2365,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>0.5071045785729221</v>
+        <v>0.9770987680762231</v>
       </c>
       <c r="B88">
-        <v>0.2878872430766866</v>
+        <v>0.01151693586777969</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2388,10 +2376,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>0.4572991132037947</v>
+        <v>0.1732739223954236</v>
       </c>
       <c r="B89">
-        <v>0.3237610531744015</v>
+        <v>0.5837381564502655</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2399,10 +2387,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>0.6997871965931123</v>
+        <v>0.9052592027538245</v>
       </c>
       <c r="B90">
-        <v>0.163467157492838</v>
+        <v>0.04854889628850367</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -2410,10 +2398,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>0.1876462433921653</v>
+        <v>0.4826603374717836</v>
       </c>
       <c r="B91">
-        <v>0.5668184636989184</v>
+        <v>0.3052623966764261</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -2421,10 +2409,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>0.5967642009067043</v>
+        <v>0.234569965548847</v>
       </c>
       <c r="B92">
-        <v>0.2274948537992098</v>
+        <v>0.5156757640290474</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2432,10 +2420,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>0.9897176310719141</v>
+        <v>0.7354812130201868</v>
       </c>
       <c r="B93">
-        <v>0.005154468738028606</v>
+        <v>0.1423979868142876</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2443,10 +2431,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>0.9265656372315314</v>
+        <v>0.7056808404551422</v>
       </c>
       <c r="B94">
-        <v>0.03741720499921075</v>
+        <v>0.1599518820596393</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2454,10 +2442,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>0.265838779497327</v>
+        <v>0.2437084531868186</v>
       </c>
       <c r="B95">
-        <v>0.4844044419340611</v>
+        <v>0.5063316364331024</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2465,10 +2453,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>0.6586580754729662</v>
+        <v>0.03777399066798359</v>
       </c>
       <c r="B96">
-        <v>0.188422477225394</v>
+        <v>0.8056446793422326</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2476,10 +2464,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.02596173697573634</v>
+        <v>0.07487961172826685</v>
       </c>
       <c r="B97">
-        <v>0.8388735373201027</v>
+        <v>0.7263586074288708</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -2487,10 +2475,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.6156831529837716</v>
+        <v>0.4020459668072853</v>
       </c>
       <c r="B98">
-        <v>0.2153452013886797</v>
+        <v>0.3659290522289439</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2498,10 +2486,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.4215674605445057</v>
+        <v>0.9299960298728734</v>
       </c>
       <c r="B99">
-        <v>0.3507177343061758</v>
+        <v>0.03563698231792745</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2509,10 +2497,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.7662687122349365</v>
+        <v>0.7712885093886074</v>
       </c>
       <c r="B100">
-        <v>0.1246322417206945</v>
+        <v>0.1217696717895655</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -2520,10 +2508,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.3911506469959168</v>
+        <v>0.4934081795539725</v>
       </c>
       <c r="B101">
-        <v>0.3745796237762021</v>
+        <v>0.297569804497292</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2531,10 +2519,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>0.08032232547853901</v>
+        <v>0.134350329187065</v>
       </c>
       <c r="B102">
-        <v>0.7165880639801157</v>
+        <v>0.6334616947888461</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2542,10 +2530,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>0.4944929798495817</v>
+        <v>0.3462013880119865</v>
       </c>
       <c r="B103">
-        <v>0.2967980518730187</v>
+        <v>0.4116111931622198</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -2553,10 +2541,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>0.9320620794740219</v>
+        <v>0.04065337725712448</v>
       </c>
       <c r="B104">
-        <v>0.03456637748935742</v>
+        <v>0.7983731732702107</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -2564,10 +2552,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>0.3576954540229548</v>
+        <v>0.9553113559243214</v>
       </c>
       <c r="B105">
-        <v>0.4019235383139086</v>
+        <v>0.0225996951482359</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -2575,10 +2563,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>0.8208291987938291</v>
+        <v>0.1961447182705072</v>
       </c>
       <c r="B106">
-        <v>0.09400375343281409</v>
+        <v>0.5571177151087354</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -2586,10 +2574,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>0.2174185967299062</v>
+        <v>0.3796903047955071</v>
       </c>
       <c r="B107">
-        <v>0.5337183289792465</v>
+        <v>0.3838098468853084</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -2597,10 +2585,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>0.5496507888895709</v>
+        <v>0.2946100373611238</v>
       </c>
       <c r="B108">
-        <v>0.2586156267565584</v>
+        <v>0.4572200838635204</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2608,10 +2596,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>0.2344483318059941</v>
+        <v>0.8763255526023916</v>
       </c>
       <c r="B109">
-        <v>0.5158013508837576</v>
+        <v>0.0638773837779627</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2619,10 +2607,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>0.6400479011492225</v>
+        <v>0.09926506644513489</v>
       </c>
       <c r="B110">
-        <v>0.1999700623419005</v>
+        <v>0.6849364088868171</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -2630,10 +2618,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>0.9958684007206663</v>
+        <v>0.1337506971622957</v>
       </c>
       <c r="B111">
-        <v>0.002067937823086896</v>
+        <v>0.6342805759023789</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -2641,10 +2629,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>0.8048784675197161</v>
+        <v>0.8240034557133604</v>
       </c>
       <c r="B112">
-        <v>0.1028498077134932</v>
+        <v>0.09225363910761919</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2652,10 +2640,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>0.4247062723060787</v>
+        <v>0.1009753721770933</v>
       </c>
       <c r="B113">
-        <v>0.3483050772745896</v>
+        <v>0.6822337774761242</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -2663,10 +2651,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>0.6955207834699229</v>
+        <v>0.3404254402191215</v>
       </c>
       <c r="B114">
-        <v>0.1660211132948731</v>
+        <v>0.4165401125877448</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2674,10 +2662,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>0.3527362805270609</v>
+        <v>0.5658173228666447</v>
       </c>
       <c r="B115">
-        <v>0.4060839448818875</v>
+        <v>0.2477917024742118</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -2685,10 +2673,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>0.9485829429121501</v>
+        <v>0.5531217754581451</v>
       </c>
       <c r="B116">
-        <v>0.02604777175050821</v>
+        <v>0.2562784288067576</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -2696,10 +2684,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>0.2960928572540349</v>
+        <v>0.4028440434003346</v>
       </c>
       <c r="B117">
-        <v>0.4558558488286079</v>
+        <v>0.3653000367099942</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -2707,10 +2695,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>0.4282254987640676</v>
+        <v>0.765710111508462</v>
       </c>
       <c r="B118">
-        <v>0.3456105908833277</v>
+        <v>0.1249513662038766</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2718,10 +2706,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>0.09765654624977682</v>
+        <v>0.4004862861079584</v>
       </c>
       <c r="B119">
-        <v>0.6874995260007166</v>
+        <v>0.3671601418147254</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2729,10 +2717,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>0.06120749028442396</v>
+        <v>0.6854720571180347</v>
       </c>
       <c r="B120">
-        <v>0.7525985240860031</v>
+        <v>0.1720676011182829</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -2740,10 +2728,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>0.5201427830406373</v>
+        <v>0.5157108727401617</v>
       </c>
       <c r="B121">
-        <v>0.2787907494765217</v>
+        <v>0.2818698775708112</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -2751,10 +2739,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>0.2872693059236057</v>
+        <v>0.9217370632306894</v>
       </c>
       <c r="B122">
-        <v>0.464024901769116</v>
+        <v>0.03992861555471339</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
@@ -2762,10 +2750,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>0.402360085245439</v>
+        <v>0.3521181894489767</v>
       </c>
       <c r="B123">
-        <v>0.3656814008359529</v>
+        <v>0.4066045252540456</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -2773,10 +2761,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>0.6538495473272343</v>
+        <v>0.9339843184111672</v>
       </c>
       <c r="B124">
-        <v>0.1913903615914325</v>
+        <v>0.03357135886234863</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -2784,10 +2772,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>0.2994896998272266</v>
+        <v>0.5690896956793161</v>
       </c>
       <c r="B125">
-        <v>0.4527434789541319</v>
+        <v>0.245619661126222</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -2795,10 +2783,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>0.6854681356062664</v>
+        <v>0.7337315630872928</v>
       </c>
       <c r="B126">
-        <v>0.1720699693776856</v>
+        <v>0.14341867689793</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -2806,10 +2794,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>0.1423068803503665</v>
+        <v>0.2105978081640199</v>
       </c>
       <c r="B127">
-        <v>0.6227641581843442</v>
+        <v>0.5410906318628701</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -2817,10 +2805,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>0.9586583206974448</v>
+        <v>0.8910755048594968</v>
       </c>
       <c r="B128">
-        <v>0.02088901512778196</v>
+        <v>0.05603204246145255</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -2828,10 +2816,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>0.2819292582369181</v>
+        <v>0.1568616252162909</v>
       </c>
       <c r="B129">
-        <v>0.4690298895070288</v>
+        <v>0.6039423965932595</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2839,10 +2827,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>0.3557530989382288</v>
+        <v>0.5459014076542438</v>
       </c>
       <c r="B130">
-        <v>0.4035495838393364</v>
+        <v>0.2611485889204489</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
@@ -2850,10 +2838,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>0.9417756044094641</v>
+        <v>0.6405223182636675</v>
       </c>
       <c r="B131">
-        <v>0.02954876247723603</v>
+        <v>0.1996736176636013</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
@@ -2861,10 +2849,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>0.06927209373565957</v>
+        <v>0.24273752386176</v>
       </c>
       <c r="B132">
-        <v>0.7368040772814678</v>
+        <v>0.5073159999941546</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -2872,10 +2860,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>0.2590721641085859</v>
+        <v>0.6991790174501128</v>
       </c>
       <c r="B133">
-        <v>0.4910086797315834</v>
+        <v>0.1638307483229769</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -2883,10 +2871,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>0.7297947831241635</v>
+        <v>0.8046115878245169</v>
       </c>
       <c r="B134">
-        <v>0.1457197280024761</v>
+        <v>0.1029985575125774</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -2894,10 +2882,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>0.03776432994009848</v>
+        <v>0.1250889563444303</v>
       </c>
       <c r="B135">
-        <v>0.8056695341947164</v>
+        <v>0.646320828512011</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -2905,10 +2893,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>0.2067845196127793</v>
+        <v>0.522335509569122</v>
       </c>
       <c r="B136">
-        <v>0.5452643409487449</v>
+        <v>0.2772721746264906</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -2916,10 +2904,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>0.1997905306836004</v>
+        <v>0.7274083238776462</v>
       </c>
       <c r="B137">
-        <v>0.5530206596680329</v>
+        <v>0.1471176377262535</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -2927,10 +2915,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>0.8202509677677828</v>
+        <v>0.4413917617626176</v>
       </c>
       <c r="B138">
-        <v>0.09432292301958811</v>
+        <v>0.3356267903033585</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -2938,10 +2926,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>0.8285994389562944</v>
+        <v>0.8911956292317942</v>
       </c>
       <c r="B139">
-        <v>0.08972562435478038</v>
+        <v>0.05596841724876911</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -2949,10 +2937,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>0.7301185351507099</v>
+        <v>0.05524122493369321</v>
       </c>
       <c r="B140">
-        <v>0.1455302608338257</v>
+        <v>0.7649654813996607</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -2960,10 +2948,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>0.5547811919416419</v>
+        <v>0.5998143642720524</v>
       </c>
       <c r="B141">
-        <v>0.25516364754287</v>
+        <v>0.2255231673755164</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2971,10 +2959,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>0.8565516533088786</v>
+        <v>0.08172758115027901</v>
       </c>
       <c r="B142">
-        <v>0.07449924186477375</v>
+        <v>0.7141196383969703</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -2982,10 +2970,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>0.6391684020246502</v>
+        <v>0.356058111222152</v>
       </c>
       <c r="B143">
-        <v>0.2005199176810906</v>
+        <v>0.4032939490652436</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -2993,10 +2981,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>0.3197536905787842</v>
+        <v>0.8170122041859502</v>
       </c>
       <c r="B144">
-        <v>0.4345323257879508</v>
+        <v>0.09611272595198561</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -3004,10 +2992,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>0.7656720313126849</v>
+        <v>0.5212830835456351</v>
       </c>
       <c r="B145">
-        <v>0.1249731253768916</v>
+        <v>0.2780006346639665</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
@@ -3015,10 +3003,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>0.8395876321543535</v>
+        <v>0.6923901825466271</v>
       </c>
       <c r="B146">
-        <v>0.08370985372844186</v>
+        <v>0.1679001366743129</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -3026,10 +3014,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>0.4935308032966391</v>
+        <v>0.4545440717459845</v>
       </c>
       <c r="B147">
-        <v>0.2974825245613892</v>
+        <v>0.3258011630490716</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
@@ -3037,10 +3025,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>0.8749146563995358</v>
+        <v>0.7768041173208267</v>
       </c>
       <c r="B148">
-        <v>0.06463127249221345</v>
+        <v>0.1186350827717122</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -3048,10 +3036,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>0.9431912788007747</v>
+        <v>0.05180275803103607</v>
       </c>
       <c r="B149">
-        <v>0.02881964661512293</v>
+        <v>0.7723978074994969</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -3059,10 +3047,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>0.7384453708309412</v>
+        <v>0.4059028915844769</v>
       </c>
       <c r="B150">
-        <v>0.1406715582322779</v>
+        <v>0.3628949132329291</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -3070,10 +3058,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>0.07669284770487594</v>
+        <v>0.3623456727772087</v>
       </c>
       <c r="B151">
-        <v>0.7230652645389605</v>
+        <v>0.3980484464865891</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -3081,10 +3069,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>0.5077781270251026</v>
+        <v>0.1995984634862966</v>
       </c>
       <c r="B152">
-        <v>0.2874144773957987</v>
+        <v>0.5532355615245361</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -3092,10 +3080,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>0.07997677302870876</v>
+        <v>0.6373312101199615</v>
       </c>
       <c r="B153">
-        <v>0.7171983503783814</v>
+        <v>0.2016697361868576</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -3103,10 +3091,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>0.4443960659960178</v>
+        <v>0.9482598189085978</v>
       </c>
       <c r="B154">
-        <v>0.3333696181570946</v>
+        <v>0.02621366876064757</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -3114,10 +3102,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>0.9061107091257965</v>
+        <v>0.6039200531255712</v>
       </c>
       <c r="B155">
-        <v>0.04810152372965926</v>
+        <v>0.2228770669156834</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -3125,10 +3113,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>0.9420102122677362</v>
+        <v>0.8230195202648272</v>
       </c>
       <c r="B156">
-        <v>0.02942789434904103</v>
+        <v>0.09279576705968395</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -3136,10 +3124,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>0.5513199890852145</v>
+        <v>0.5726876567731856</v>
       </c>
       <c r="B157">
-        <v>0.2574907481484056</v>
+        <v>0.2432387055529428</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3147,10 +3135,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>0.06868141056593069</v>
+        <v>0.2991885936753997</v>
       </c>
       <c r="B158">
-        <v>0.7379286155149123</v>
+        <v>0.4530186532655801</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -3158,10 +3146,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>0.1799603618127112</v>
+        <v>0.3379402014177523</v>
       </c>
       <c r="B159">
-        <v>0.5757826479118149</v>
+        <v>0.4186737564690957</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3169,10 +3157,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>0.7712238099854242</v>
+        <v>0.0352387547385532</v>
       </c>
       <c r="B160">
-        <v>0.1218065076616519</v>
+        <v>0.8122801162941091</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -3180,10 +3168,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>0.90718937324204</v>
+        <v>0.4397966038123445</v>
       </c>
       <c r="B161">
-        <v>0.04753510655665638</v>
+        <v>0.3368283752961496</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3191,10 +3179,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>0.4807009179823372</v>
+        <v>0.2868181816600357</v>
       </c>
       <c r="B162">
-        <v>0.306674017519654</v>
+        <v>0.4644459115457752</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -3202,10 +3190,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>0.2486270016727543</v>
+        <v>0.472479356482958</v>
       </c>
       <c r="B163">
-        <v>0.5013748886460347</v>
+        <v>0.312628661869759</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -3213,21 +3201,30 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>0.9941420280945076</v>
+        <v>0.7327682687216185</v>
       </c>
       <c r="B164">
-        <v>0.002933288042115234</v>
+        <v>3.59022600159684</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>0.4472068277099539</v>
+        <v>0.6575656293545771</v>
       </c>
       <c r="B165">
-        <v>4.073396683107229</v>
+        <v>3.497725055423905</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -3236,21 +3233,18 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G165">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>0.7117766542916328</v>
+        <v>0.4101938483869715</v>
       </c>
       <c r="B166">
-        <v>3.646191662601328</v>
+        <v>3.863470223707111</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -3259,21 +3253,18 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>7</v>
-      </c>
-      <c r="F166" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G166">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>0.6535197031009399</v>
+        <v>0.8912014050510365</v>
       </c>
       <c r="B167">
-        <v>3.994434832814356</v>
+        <v>3.491071833053993</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -3282,21 +3273,18 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>7</v>
-      </c>
-      <c r="F167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G167">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>0.08878074170584727</v>
+        <v>0.4695425288569898</v>
       </c>
       <c r="B168">
-        <v>4.470239583775983</v>
+        <v>3.71039729021839</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -3307,19 +3295,16 @@
       <c r="E168">
         <v>2</v>
       </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
       <c r="G168">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>0.6458480031004261</v>
+        <v>0.2451174605885291</v>
       </c>
       <c r="B169">
-        <v>3.585057073599644</v>
+        <v>3.856678967511015</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -3328,21 +3313,18 @@
         <v>0</v>
       </c>
       <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="G169">
         <v>5</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>0.9867783791613691</v>
+        <v>0.5463990377050485</v>
       </c>
       <c r="B170">
-        <v>3.318081096909667</v>
+        <v>3.993232672284106</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -3351,21 +3333,18 @@
         <v>0</v>
       </c>
       <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="G170">
         <v>6</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>0.4309286569351796</v>
+        <v>0.984787620987479</v>
       </c>
       <c r="B171">
-        <v>3.886548038818818</v>
+        <v>3.02250121176057</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -3374,44 +3353,38 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>5</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G171">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>0.5094095496890958</v>
+        <v>0.2987108542169309</v>
       </c>
       <c r="B172">
-        <v>4.135441823367494</v>
+        <v>4.092126758004547</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>99</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G172">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>0.6259472558966754</v>
+        <v>0.03711575577317872</v>
       </c>
       <c r="B173">
-        <v>3.479251659301595</v>
+        <v>5.211936494202163</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3420,21 +3393,18 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>4</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>0.457975033241345</v>
+        <v>0.1921090278562292</v>
       </c>
       <c r="B174">
-        <v>3.722513353504875</v>
+        <v>4.434083633523943</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -3445,19 +3415,16 @@
       <c r="E174">
         <v>3</v>
       </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
       <c r="G174">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>0.2156927642241594</v>
+        <v>0.9360394865829356</v>
       </c>
       <c r="B175">
-        <v>4.405822446884748</v>
+        <v>3.3553380857229</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -3466,21 +3433,18 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>3</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G175">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>0.1900740202627306</v>
+        <v>0.8750303916046499</v>
       </c>
       <c r="B176">
-        <v>4.43820077217904</v>
+        <v>3.058705782701865</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -3489,21 +3453,18 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>2</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>0.4217803031709247</v>
+        <v>0.3511597020570844</v>
       </c>
       <c r="B177">
-        <v>3.324339528921593</v>
+        <v>4.366863778627732</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -3512,21 +3473,18 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G177">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>0.5907824995276433</v>
+        <v>0.8970808079437</v>
       </c>
       <c r="B178">
-        <v>3.230490816544835</v>
+        <v>3.771764921924093</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -3535,21 +3493,18 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G178">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>0.4610908690807545</v>
+        <v>0.5278839937820905</v>
       </c>
       <c r="B179">
-        <v>4.004505707658466</v>
+        <v>3.299475525378627</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -3558,21 +3513,18 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>6</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>0.05667339821087636</v>
+        <v>0.3952364257660708</v>
       </c>
       <c r="B180">
-        <v>5.515444415390816</v>
+        <v>3.690225942478029</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -3581,21 +3533,18 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>4</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>0.02021021945724144</v>
+        <v>0.09252999958761354</v>
       </c>
       <c r="B181">
-        <v>5.793610377391245</v>
+        <v>4.272392141441314</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3606,19 +3555,16 @@
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
       <c r="G181">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>0.7564545864713541</v>
+        <v>0.428183620769313</v>
       </c>
       <c r="B182">
-        <v>2.974454580886526</v>
+        <v>4.288636476825789</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -3627,21 +3573,18 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G182">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>0.3843707726383588</v>
+        <v>0.7537062728000377</v>
       </c>
       <c r="B183">
-        <v>4.194204478800676</v>
+        <v>3.849587046867771</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3650,21 +3593,18 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>3</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G183">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>0.293173731403058</v>
+        <v>0.7295377480780371</v>
       </c>
       <c r="B184">
-        <v>4.062323953800322</v>
+        <v>2.815864750626274</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -3675,19 +3615,16 @@
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
       <c r="G184">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>0.3646793508536768</v>
+        <v>0.5276943213504517</v>
       </c>
       <c r="B185">
-        <v>3.882909826667971</v>
+        <v>2.961467684218249</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
@@ -3696,21 +3633,18 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>2</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>0.3273139147476051</v>
+        <v>0.7511413685105497</v>
       </c>
       <c r="B186">
-        <v>4.722408795472818</v>
+        <v>3.68335917078225</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3719,21 +3653,18 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>5</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G186">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>0.3181408317320729</v>
+        <v>0.02805866919431654</v>
       </c>
       <c r="B187">
-        <v>3.929686758867783</v>
+        <v>6.338354319173918</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -3742,21 +3673,18 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G187">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>0.4278516711958911</v>
+        <v>0.02292849380916351</v>
       </c>
       <c r="B188">
-        <v>3.609074838642925</v>
+        <v>5.32866363093782</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -3765,21 +3693,18 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>2</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>0.7633870992860383</v>
+        <v>0.9530699175797953</v>
       </c>
       <c r="B189">
-        <v>2.850066033201689</v>
+        <v>3.514366306280726</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3788,21 +3713,18 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G189">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>0.3911665279156913</v>
+        <v>0.4849235595813414</v>
       </c>
       <c r="B190">
-        <v>3.843330303266103</v>
+        <v>3.86429310729168</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -3811,21 +3733,18 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>4</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G190">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>0.267936026019558</v>
+        <v>0.3519854485956665</v>
       </c>
       <c r="B191">
-        <v>4.48339128853984</v>
+        <v>4.343902424784827</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -3834,21 +3753,18 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>4</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G191">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>0.7693862027687913</v>
+        <v>0.2307301804390203</v>
       </c>
       <c r="B192">
-        <v>3.05434156812169</v>
+        <v>4.498141749012566</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -3857,21 +3773,18 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>3</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G192">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>0.6817074726609405</v>
+        <v>0.4991307025326711</v>
       </c>
       <c r="B193">
-        <v>3.854154608112648</v>
+        <v>3.061872098994143</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -3880,21 +3793,18 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>6</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>0.5887439348940846</v>
+        <v>0.4054399125841099</v>
       </c>
       <c r="B194">
-        <v>3.617712314327094</v>
+        <v>4.019534490083599</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -3903,21 +3813,18 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>4</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G194">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>0.0808848228169573</v>
+        <v>0.5926529856626187</v>
       </c>
       <c r="B195">
-        <v>5.488691799378754</v>
+        <v>3.172214816285807</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -3926,21 +3833,18 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>4</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G195">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>0.03148507218724406</v>
+        <v>0.682218124655251</v>
       </c>
       <c r="B196">
-        <v>4.281576116766556</v>
+        <v>3.747241220202868</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -3949,21 +3853,18 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G196">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>0.5085722124509446</v>
+        <v>0.06324248463315552</v>
       </c>
       <c r="B197">
-        <v>3.472029670024641</v>
+        <v>5.488124933347478</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -3974,19 +3875,16 @@
       <c r="E197">
         <v>2</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
       <c r="G197">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>0.9014022688463046</v>
+        <v>0.6600822231072573</v>
       </c>
       <c r="B198">
-        <v>2.874448762693329</v>
+        <v>3.344305365475498</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -3995,21 +3893,18 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>2</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G198">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>0.981801808892788</v>
+        <v>0.2286651416195471</v>
       </c>
       <c r="B199">
-        <v>3.352177591056699</v>
+        <v>4.574701043996511</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -4018,21 +3913,18 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>6</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G199">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>0.811311444437026</v>
+        <v>0.5407795077719666</v>
       </c>
       <c r="B200">
-        <v>2.508500730473585</v>
+        <v>3.773783609737011</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -4041,21 +3933,18 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G200">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>0.8656611893040759</v>
+        <v>0.7033671822905677</v>
       </c>
       <c r="B201">
-        <v>3.352794092411681</v>
+        <v>3.61338726374373</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -4064,21 +3953,18 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>6</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G201">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>0.7065898498573682</v>
+        <v>0.9854977871476945</v>
       </c>
       <c r="B202">
-        <v>3.597698382217107</v>
+        <v>2.782341155488827</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -4087,21 +3973,18 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>6</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G202">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>0.2007929377066908</v>
+        <v>0.2621793540630705</v>
       </c>
       <c r="B203">
-        <v>4.38920967928861</v>
+        <v>3.93639274880842</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -4112,19 +3995,16 @@
       <c r="E203">
         <v>2</v>
       </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
       <c r="G203">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>0.8529225018602309</v>
+        <v>0.245093513890117</v>
       </c>
       <c r="B204">
-        <v>3.036116422917057</v>
+        <v>4.73346188296355</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -4133,10 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>3</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G204">
         <v>42</v>
@@ -4144,10 +4021,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>0.8799082205650977</v>
+        <v>0.7160900869759296</v>
       </c>
       <c r="B205">
-        <v>3.15781982034868</v>
+        <v>3.51507111912996</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -4158,19 +4035,16 @@
       <c r="E205">
         <v>4</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
       <c r="G205">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>0.7831783772032462</v>
+        <v>0.2036620394026961</v>
       </c>
       <c r="B206">
-        <v>3.518942135873525</v>
+        <v>4.149905608040886</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -4179,21 +4053,18 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>6</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>0.05283621145657236</v>
+        <v>0.2335411715736844</v>
       </c>
       <c r="B207">
-        <v>4.500868401926259</v>
+        <v>4.743355536469108</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -4202,21 +4073,18 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>2</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G207">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>0.789571441810771</v>
+        <v>0.25183627858746</v>
       </c>
       <c r="B208">
-        <v>3.20462574791966</v>
+        <v>4.112858529198851</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -4225,21 +4093,18 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>4</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G208">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>0.1944387522520912</v>
+        <v>0.1574149801145754</v>
       </c>
       <c r="B209">
-        <v>4.076154867243424</v>
+        <v>4.133582379155546</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -4250,19 +4115,16 @@
       <c r="E209">
         <v>1</v>
       </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
       <c r="G209">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>0.7359383008365511</v>
+        <v>0.9825740227509927</v>
       </c>
       <c r="B210">
-        <v>3.407300230003405</v>
+        <v>2.807156073774066</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -4271,21 +4133,18 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>4</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G210">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>0.6857965370175607</v>
+        <v>0.3817545164856768</v>
       </c>
       <c r="B211">
-        <v>3.793942530291471</v>
+        <v>4.08085080889854</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -4294,21 +4153,18 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>6</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G211">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>0.3659254557405233</v>
+        <v>0.7900318835962057</v>
       </c>
       <c r="B212">
-        <v>4.46750517855555</v>
+        <v>2.99754171757653</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -4317,21 +4173,18 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>4</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G212">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>0.4968027440495622</v>
+        <v>0.5000774263760718</v>
       </c>
       <c r="B213">
-        <v>3.89363963221597</v>
+        <v>3.423778144781973</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -4340,21 +4193,18 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>6</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G213">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>0.4429673208385249</v>
+        <v>0.1510630054217297</v>
       </c>
       <c r="B214">
-        <v>4.06187448824366</v>
+        <v>4.697755442336134</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -4363,21 +4213,18 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>6</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G214">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>0.3369810472801191</v>
+        <v>0.3421116457800127</v>
       </c>
       <c r="B215">
-        <v>3.551000694481879</v>
+        <v>4.520203704042059</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -4386,21 +4233,18 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G215">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>0.02323358594871194</v>
+        <v>0.2713876439948258</v>
       </c>
       <c r="B216">
-        <v>4.845724815208417</v>
+        <v>4.519911033546451</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -4409,21 +4253,18 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G216">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>0.041740131141212</v>
+        <v>0.6234172522467535</v>
       </c>
       <c r="B217">
-        <v>5.617185430539942</v>
+        <v>4.082948319460589</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -4432,21 +4273,18 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>2</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G217">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>0.5520576255887653</v>
+        <v>0.502635965318882</v>
       </c>
       <c r="B218">
-        <v>3.449526920224413</v>
+        <v>3.543710538927658</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -4457,19 +4295,16 @@
       <c r="E218">
         <v>3</v>
       </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
       <c r="G218">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>0.7739080451957813</v>
+        <v>0.7363141280575506</v>
       </c>
       <c r="B219">
-        <v>3.050402960504771</v>
+        <v>3.259019198258496</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -4480,19 +4315,16 @@
       <c r="E219">
         <v>3</v>
       </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
       <c r="G219">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>0.9147563133465885</v>
+        <v>0.2641036346713512</v>
       </c>
       <c r="B220">
-        <v>3.143590356978292</v>
+        <v>4.355360691858468</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -4501,21 +4333,18 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>4</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G220">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>0.4036964968539128</v>
+        <v>0.3124143190677792</v>
       </c>
       <c r="B221">
-        <v>3.901769894949896</v>
+        <v>4.21880280880641</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -4526,19 +4355,16 @@
       <c r="E221">
         <v>5</v>
       </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
       <c r="G221">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>0.6918012760104635</v>
+        <v>0.8721321349816732</v>
       </c>
       <c r="B222">
-        <v>3.49301396867555</v>
+        <v>2.497868038530282</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -4547,21 +4373,18 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>5</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>0.05336232590897472</v>
+        <v>0.2906584329424212</v>
       </c>
       <c r="B223">
-        <v>5.203397042234783</v>
+        <v>4.077560346908098</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -4572,19 +4395,16 @@
       <c r="E223">
         <v>3</v>
       </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
       <c r="G223">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>0.2202755420220712</v>
+        <v>0.474010003843119</v>
       </c>
       <c r="B224">
-        <v>5.077842020512851</v>
+        <v>3.1636364375404</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -4593,21 +4413,18 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>4</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>0.7506018319936515</v>
+        <v>0.05190675058332028</v>
       </c>
       <c r="B225">
-        <v>3.049703397295638</v>
+        <v>5.614176251297214</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -4616,21 +4433,18 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G225">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>0.2296337732112363</v>
+        <v>0.8825263400938788</v>
       </c>
       <c r="B226">
-        <v>4.536850308810394</v>
+        <v>3.40409045167953</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -4639,21 +4453,18 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>4</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G226">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>0.7683953597741454</v>
+        <v>0.2269519272530502</v>
       </c>
       <c r="B227">
-        <v>3.031937620144868</v>
+        <v>4.26636695950991</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -4662,21 +4473,18 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>2</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G227">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>0.5435940238219216</v>
+        <v>0.7736249784934768</v>
       </c>
       <c r="B228">
-        <v>3.366224052163503</v>
+        <v>3.284328509289546</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -4685,21 +4493,18 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>2</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G228">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>0.5039143812902098</v>
+        <v>0.1656303533669479</v>
       </c>
       <c r="B229">
-        <v>3.517649410746777</v>
+        <v>4.135626955745177</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -4710,19 +4515,16 @@
       <c r="E229">
         <v>2</v>
       </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
       <c r="G229">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>0.5373470197866796</v>
+        <v>0.9000144882948932</v>
       </c>
       <c r="B230">
-        <v>3.746401391280863</v>
+        <v>3.371274366423957</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -4731,21 +4533,18 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>4</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G230">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <v>0.7260136359796774</v>
+        <v>0.3920012839466049</v>
       </c>
       <c r="B231">
-        <v>3.379458109486543</v>
+        <v>4.469419353740208</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -4754,21 +4553,18 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>3</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G231">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>0.3875632968977357</v>
+        <v>0.4964276558744412</v>
       </c>
       <c r="B232">
-        <v>3.8310837092527</v>
+        <v>3.794353731342894</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -4779,19 +4575,16 @@
       <c r="E232">
         <v>3</v>
       </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
       <c r="G232">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>0.8120620137118213</v>
+        <v>0.1535835187072297</v>
       </c>
       <c r="B233">
-        <v>3.249505234872157</v>
+        <v>4.627741472195334</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -4800,21 +4593,18 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>5</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G233">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>0.3780980112303159</v>
+        <v>0.416950939523916</v>
       </c>
       <c r="B234">
-        <v>3.782949101311348</v>
+        <v>3.404125478038937</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -4823,21 +4613,18 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>2</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>0.3306045398349645</v>
+        <v>0.921480696601191</v>
       </c>
       <c r="B235">
-        <v>3.660939995125711</v>
+        <v>3.235467931116196</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -4846,21 +4633,18 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G235">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>0.02277327964232734</v>
+        <v>0.3541772362300414</v>
       </c>
       <c r="B236">
-        <v>5.367360976633502</v>
+        <v>3.909563466994007</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -4869,21 +4653,18 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G236">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <v>0.6486870929170069</v>
+        <v>0.06747800872154097</v>
       </c>
       <c r="B237">
-        <v>3.10649903266399</v>
+        <v>4.558536625881583</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -4894,19 +4675,16 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
       <c r="G237">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
-        <v>0.964542136563054</v>
+        <v>0.9216630163319949</v>
       </c>
       <c r="B238">
-        <v>2.716992726718539</v>
+        <v>3.593915960402813</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -4915,21 +4693,18 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>2</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G238">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
-        <v>0.2090413072403566</v>
+        <v>0.4545054423412268</v>
       </c>
       <c r="B239">
-        <v>4.481684148117302</v>
+        <v>3.820369440268827</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -4938,21 +4713,18 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>3</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G239">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>0.8007145334371285</v>
+        <v>0.428111791492773</v>
       </c>
       <c r="B240">
-        <v>3.259708665977649</v>
+        <v>3.93329052573623</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -4961,13 +4733,10 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>5</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G240">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/zdt1/fitness_nsga2_1.xlsx
+++ b/data/interim/zdt1/fitness_nsga2_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="11">
   <si>
     <t>obj1</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,33 +435,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.9854977871476945</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B2">
-        <v>1.923544236344934</v>
+        <v>1.595608565146412</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>324</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.984787620987479</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B3">
-        <v>1.889357210184528</v>
+        <v>0.5751324895888247</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -470,21 +470,21 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>291</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.02292849380916351</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B4">
-        <v>3.447036765469225</v>
+        <v>0.9249520728781873</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -493,21 +493,21 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.6154206960622874</v>
       </c>
       <c r="G4">
-        <v>410</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.1656303533669479</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B5">
-        <v>2.857155328298312</v>
+        <v>0.7779223907899716</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -516,21 +516,21 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1.122543079738139</v>
+        <v>0.5756072362828684</v>
       </c>
       <c r="G5">
-        <v>413</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.7295377480780371</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B6">
-        <v>1.882448523001926</v>
+        <v>0.6879335022501228</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -539,21 +539,21 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.3485572376853878</v>
       </c>
       <c r="G6">
-        <v>386</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.09252999958761354</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B7">
-        <v>3.021104311902917</v>
+        <v>1.16772854570382</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -562,21 +562,21 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.3051086183665858</v>
       </c>
       <c r="G7">
-        <v>392</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.1656303533669479</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B8">
-        <v>2.550205073117635</v>
+        <v>0.6434563706829739</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -585,21 +585,21 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.3045085291439475</v>
       </c>
       <c r="G8">
-        <v>416</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.416950939523916</v>
+        <v>0.04021890019098096</v>
       </c>
       <c r="B9">
-        <v>2.012474444061739</v>
+        <v>1.41558697114238</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -608,21 +608,21 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2963843263641213</v>
       </c>
       <c r="G9">
-        <v>350</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>0.416950939523916</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B10">
-        <v>1.820662408948799</v>
+        <v>1.052018325877528</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -631,21 +631,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.2595665291121848</v>
       </c>
       <c r="G10">
-        <v>381</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0.7295377480780371</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B11">
-        <v>1.85252932285407</v>
+        <v>1.16772854570382</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -654,21 +654,21 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2474201914583876</v>
       </c>
       <c r="G11">
-        <v>440</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>0.25183627858746</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B12">
-        <v>2.379591599881967</v>
+        <v>1.052018325877528</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -677,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.2344121133146405</v>
       </c>
       <c r="G12">
-        <v>319</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>0.416950939523916</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B13">
-        <v>2.28731537488353</v>
+        <v>1.366938890734207</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -700,67 +700,67 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.2169836194759757</v>
       </c>
       <c r="G13">
-        <v>415</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>0.02292849380916351</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B14">
-        <v>3.17423186754902</v>
+        <v>1.367220947655177</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.1814272711419626</v>
       </c>
       <c r="G14">
-        <v>426</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>0.2269519272530502</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B15">
-        <v>2.59469783263275</v>
+        <v>1.367220947655177</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0002763973871865455</v>
       </c>
       <c r="G15">
-        <v>439</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>0.7295377480780371</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B16">
-        <v>1.810687025271013</v>
+        <v>0.9211662236671578</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -769,21 +769,21 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>366</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>0.02292849380916351</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B17">
-        <v>3.138651677098089</v>
+        <v>0.7755681013552197</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>362</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>0.2269519272530502</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B18">
-        <v>2.642258408427069</v>
+        <v>0.6412314908370069</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -815,21 +815,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>365</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>0.1656303533669479</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B19">
-        <v>2.527391173778673</v>
+        <v>0.5740146613391554</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -838,21 +838,21 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>363</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>0.416950939523916</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B20">
-        <v>2.220398887884337</v>
+        <v>1.362508012263717</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -861,21 +861,21 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>427</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>0.03711575577317872</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B21">
-        <v>3.105674022992342</v>
+        <v>0.6412314908370069</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -884,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>352</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>0.416950939523916</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B22">
-        <v>2.102006628084934</v>
+        <v>1.362508012263717</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -907,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>317</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>0.7295377480780371</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B23">
-        <v>1.797160620159694</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -930,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>408</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>0.1656303533669479</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B24">
-        <v>2.575533087327556</v>
+        <v>0.7773196132405941</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -953,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>376</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>0.7295377480780371</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B25">
-        <v>1.851438288778688</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>431</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>0.09252999958761354</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B26">
-        <v>2.619056507428979</v>
+        <v>0.5740146613391554</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -999,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>436</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>0.9854977871476945</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B27">
-        <v>1.499484295591448</v>
+        <v>0.5740146613391554</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1028,15 +1028,15 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>449</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>0.416950939523916</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B28">
-        <v>2.306689006662122</v>
+        <v>0.573461830869315</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>432</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>0.9854977871476945</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B29">
-        <v>1.658507372834356</v>
+        <v>0.9236607711675522</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>447</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>0.25183627858746</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B30">
-        <v>2.505714952035983</v>
+        <v>0.9211662236671578</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1091,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>173</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>0.09252999958761354</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B31">
-        <v>3.067217310902121</v>
+        <v>1.051080883242475</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>402</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>0.416950939523916</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B32">
-        <v>1.952028761427313</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1137,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>444</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>0.02292849380916351</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B33">
-        <v>2.970089452449985</v>
+        <v>1.58699935667385</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1160,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>443</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>0.09252999958761354</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B34">
-        <v>2.726027811207845</v>
+        <v>1.049148149526579</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1183,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>411</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>0.09252999958761354</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B35">
-        <v>2.808305209130974</v>
+        <v>0.6412314908370069</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1206,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>419</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>0.416950939523916</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B36">
-        <v>1.952685691495718</v>
+        <v>1.590135316754251</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1229,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>435</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>0.7295377480780371</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B37">
-        <v>1.857988126005593</v>
+        <v>0.6406620739218418</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1252,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>372</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>0.2269519272530502</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B38">
-        <v>2.575392581453303</v>
+        <v>0.9211662236671578</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1275,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>232</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>0.1656303533669479</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B39">
-        <v>2.397504222998421</v>
+        <v>1.365427714598342</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1298,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>424</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>0.02292849380916351</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B40">
-        <v>2.875422281312619</v>
+        <v>0.6412314908370069</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1321,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>423</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>0.02292849380916351</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B41">
-        <v>3.138450250296221</v>
+        <v>0.573461830869315</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1344,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>270</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>0.2269519272530502</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B42">
-        <v>2.548107415048798</v>
+        <v>1.590135316754251</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1367,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>305</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>0.09252999958761354</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B43">
-        <v>2.744273136358168</v>
+        <v>1.164300446329013</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1390,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>289</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>0.2269519272530502</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B44">
-        <v>2.539981945789983</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1413,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>420</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>0.03711575577317872</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B45">
-        <v>3.066327779708711</v>
+        <v>0.9236607711675522</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1436,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>327</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>0.02292849380916351</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B46">
-        <v>3.200390945260205</v>
+        <v>0.6867599413571281</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1459,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>346</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>0.03711575577317872</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B47">
-        <v>3.050795185429685</v>
+        <v>0.6850732961977436</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1482,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>328</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>0.09252999958761354</v>
+        <v>0.04021890019098096</v>
       </c>
       <c r="B48">
-        <v>3.073525506752512</v>
+        <v>1.410803181855766</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1505,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>393</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>0.25183627858746</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B49">
-        <v>2.626383906558819</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1528,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>383</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>0.1656303533669479</v>
+        <v>0.04021890019098096</v>
       </c>
       <c r="B50">
-        <v>2.800960651613367</v>
+        <v>1.410803181855766</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1551,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>417</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>0.03711575577317872</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B51">
-        <v>3.123432111759914</v>
+        <v>0.5740146613391554</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1574,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>357</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>0.1656303533669479</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B52">
-        <v>2.503961549050541</v>
+        <v>0.7755681013552197</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1597,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>428</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>0.02292849380916351</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B53">
-        <v>3.172871903159758</v>
+        <v>0.6867599413571281</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1620,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>441</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>0.25183627858746</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B54">
-        <v>2.497788193962886</v>
+        <v>1.051080883242475</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1643,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>438</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>0.1656303533669479</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B55">
-        <v>2.791298862461451</v>
+        <v>0.6867599413571281</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1666,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>429</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>0.9854977871476945</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B56">
-        <v>1.65870517080667</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1689,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>351</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>0.7295377480780371</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B57">
-        <v>1.71642042743456</v>
+        <v>0.7755681013552197</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1712,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>343</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>0.2269519272530502</v>
+        <v>0.04021890019098096</v>
       </c>
       <c r="B58">
-        <v>2.535739817000612</v>
+        <v>1.410803181855766</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1735,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>394</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>0.9854977871476945</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B59">
-        <v>1.638340127385871</v>
+        <v>0.9211662236671578</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1758,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>399</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>0.1656303533669479</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B60">
-        <v>2.494358580567535</v>
+        <v>0.9236607711675522</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1787,15 +1787,15 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>406</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>0.2269519272530502</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B61">
-        <v>2.465344243609466</v>
+        <v>0.7755681013552197</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1804,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>243</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>0.03711575577317872</v>
+        <v>0.04021890019098096</v>
       </c>
       <c r="B62">
-        <v>3.083036445810744</v>
+        <v>1.414828225324761</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1827,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>409</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>0.09252999958761354</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B63">
-        <v>2.97119453939197</v>
+        <v>1.164999108301031</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1850,44 +1850,44 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>433</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>0.02292849380916351</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B64">
-        <v>5.934356919657675</v>
+        <v>0.6867599413571281</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>95</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>0.25183627858746</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B65">
-        <v>2.626383906558819</v>
+        <v>1.164300446329013</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1896,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>382</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>0.8721321349816732</v>
+        <v>0.476499880641192</v>
       </c>
       <c r="B66">
-        <v>1.858043293344795</v>
+        <v>0.7773196132405941</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1919,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>315</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>0.9854977871476945</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B67">
-        <v>1.746815606778972</v>
+        <v>1.58699935667385</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1942,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>414</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>0.03711575577317872</v>
+        <v>0.2293557587891517</v>
       </c>
       <c r="B68">
-        <v>2.767669716548315</v>
+        <v>1.051080883242475</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1965,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>326</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>0.02292849380916351</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B69">
-        <v>3.067742620333302</v>
+        <v>1.58699935667385</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1988,1223 +1988,1463 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>389</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>0.1656303533669479</v>
+        <v>0.9147072698197571</v>
       </c>
       <c r="B70">
-        <v>2.736506045909483</v>
+        <v>0.04359670127097681</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>7</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>356</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>0.416950939523916</v>
+        <v>0.04221743602908345</v>
       </c>
       <c r="B71">
-        <v>1.841117595358373</v>
+        <v>0.7945311799102271</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G71">
-        <v>378</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>0.984787620987479</v>
+        <v>0.8225839357584493</v>
       </c>
       <c r="B72">
-        <v>1.41966588230334</v>
+        <v>0.09303586853809409</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>405</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>0.7295377480780371</v>
+        <v>0.485311168484875</v>
       </c>
       <c r="B73">
-        <v>1.695242783513073</v>
+        <v>0.3033572160103322</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G73">
-        <v>368</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>0.25183627858746</v>
+        <v>0.8648611978069028</v>
       </c>
       <c r="B74">
-        <v>2.626383906558819</v>
+        <v>0.07002086162812082</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>364</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>0.02292849380916351</v>
+        <v>0.7605268842243179</v>
       </c>
       <c r="B75">
-        <v>3.182661891967573</v>
+        <v>0.1279180748207667</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G75">
-        <v>384</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>0.02292849380916351</v>
+        <v>0.9313845540133037</v>
       </c>
       <c r="B76">
-        <v>3.096857967341058</v>
+        <v>0.0349173330676259</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G76">
-        <v>430</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>0.7295377480780371</v>
+        <v>0.1164468385032466</v>
       </c>
       <c r="B77">
-        <v>1.865168770765748</v>
+        <v>0.658756921677162</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>9</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G77">
-        <v>421</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>0.25183627858746</v>
+        <v>0.7251157678294139</v>
       </c>
       <c r="B78">
-        <v>2.403474851976993</v>
+        <v>0.148462703207068</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G78">
-        <v>398</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>0.7295377480780371</v>
+        <v>0.1782398142487517</v>
       </c>
       <c r="B79">
-        <v>1.76856647717446</v>
+        <v>0.5778154263254617</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>425</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>0.416950939523916</v>
+        <v>0.160416081864945</v>
       </c>
       <c r="B80">
-        <v>2.251057399436798</v>
+        <v>0.5994802353629162</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G80">
-        <v>375</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>0.9854977871476945</v>
+        <v>0.2897698461933892</v>
       </c>
       <c r="B81">
-        <v>1.576847268710461</v>
+        <v>0.4616972541465266</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>3</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G81">
-        <v>445</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>0.984787620987479</v>
+        <v>0.02406685759846516</v>
       </c>
       <c r="B82">
-        <v>1.557683323065581</v>
+        <v>0.8448650342493184</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G82">
-        <v>448</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>0.1656303533669479</v>
+        <v>0.6733713662063668</v>
       </c>
       <c r="B83">
-        <v>2.811726823456601</v>
+        <v>0.1794079172899808</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>10</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G83">
-        <v>451</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>0.9155470806570238</v>
+        <v>0.3224333353333632</v>
       </c>
       <c r="B84">
-        <v>0.04315775560595991</v>
+        <v>0.432167863419687</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
+      </c>
+      <c r="G84">
+        <v>1868</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>0.4249229557910926</v>
+        <v>0.1032304079303402</v>
       </c>
       <c r="B85">
-        <v>0.348138852368779</v>
+        <v>0.6787051075252826</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
+      </c>
+      <c r="G85">
+        <v>1869</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>0.6626024834399813</v>
+        <v>0.4246139291362298</v>
       </c>
       <c r="B86">
-        <v>0.185996017552751</v>
+        <v>0.3483759295911255</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
+      </c>
+      <c r="G86">
+        <v>1870</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>0.4084974849060168</v>
+        <v>0.002712404384178524</v>
       </c>
       <c r="B87">
-        <v>0.3608619203129759</v>
+        <v>0.9479192513093512</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
+      </c>
+      <c r="G87">
+        <v>1871</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>0.9770987680762231</v>
+        <v>0.7989718722824096</v>
       </c>
       <c r="B88">
-        <v>0.01151693586777969</v>
+        <v>0.1061477346438006</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
+      </c>
+      <c r="G88">
+        <v>1872</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>0.1732739223954236</v>
+        <v>0.1711854200321294</v>
       </c>
       <c r="B89">
-        <v>0.5837381564502655</v>
+        <v>0.5862544017972766</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
+      </c>
+      <c r="G89">
+        <v>1873</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>0.9052592027538245</v>
+        <v>0.6392658914091384</v>
       </c>
       <c r="B90">
-        <v>0.04854889628850367</v>
+        <v>0.2004589495159499</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
+      </c>
+      <c r="G90">
+        <v>1874</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>0.4826603374717836</v>
+        <v>0.3325587405932225</v>
       </c>
       <c r="B91">
-        <v>0.3052623966764261</v>
+        <v>0.4233209379618309</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
+      </c>
+      <c r="G91">
+        <v>1875</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>0.234569965548847</v>
+        <v>0.8327985197749179</v>
       </c>
       <c r="B92">
-        <v>0.5156757640290474</v>
+        <v>0.0874220472886067</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
+      </c>
+      <c r="G92">
+        <v>1876</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>0.7354812130201868</v>
+        <v>0.6377481591668903</v>
       </c>
       <c r="B93">
-        <v>0.1423979868142876</v>
+        <v>0.201408640688562</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
+      </c>
+      <c r="G93">
+        <v>1877</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>0.7056808404551422</v>
+        <v>0.6269917792349178</v>
       </c>
       <c r="B94">
-        <v>0.1599518820596393</v>
+        <v>0.2081718751932855</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
+      </c>
+      <c r="G94">
+        <v>1878</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>0.2437084531868186</v>
+        <v>0.3761074121349282</v>
       </c>
       <c r="B95">
-        <v>0.5063316364331024</v>
+        <v>0.3867240326452306</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
+      </c>
+      <c r="G95">
+        <v>1879</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>0.03777399066798359</v>
+        <v>0.5095733308918506</v>
       </c>
       <c r="B96">
-        <v>0.8056446793422326</v>
+        <v>0.2861559477786128</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
-        <v>0.07487961172826685</v>
+        <v>0.9709128770409865</v>
       </c>
       <c r="B97">
-        <v>0.7263586074288708</v>
+        <v>0.01465088570548434</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
-        <v>0.4020459668072853</v>
+        <v>0.6695130792859548</v>
       </c>
       <c r="B98">
-        <v>0.3659290522289439</v>
+        <v>0.1817622110376746</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
-        <v>0.9299960298728734</v>
+        <v>0.6146187579963558</v>
       </c>
       <c r="B99">
-        <v>0.03563698231792745</v>
+        <v>0.2160237516376177</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="G99">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
-        <v>0.7712885093886074</v>
+        <v>0.1443670811464589</v>
       </c>
       <c r="B100">
-        <v>0.1217696717895655</v>
+        <v>0.6200433167498447</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="G100">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
-        <v>0.4934081795539725</v>
+        <v>0.164861329952438</v>
       </c>
       <c r="B101">
-        <v>0.297569804497292</v>
+        <v>0.5939688066755979</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="G101">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
-        <v>0.134350329187065</v>
+        <v>0.6098218547261597</v>
       </c>
       <c r="B102">
-        <v>0.6334616947888461</v>
+        <v>0.2190890865622637</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="G102">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
-        <v>0.3462013880119865</v>
+        <v>0.2832458523016815</v>
       </c>
       <c r="B103">
-        <v>0.4116111931622198</v>
+        <v>0.4677915330420969</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="G103">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
-        <v>0.04065337725712448</v>
+        <v>0.393905449623792</v>
       </c>
       <c r="B104">
-        <v>0.7983731732702107</v>
+        <v>0.3723811270971912</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="G104">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
-        <v>0.9553113559243214</v>
+        <v>0.4118903739287374</v>
       </c>
       <c r="B105">
-        <v>0.0225996951482359</v>
+        <v>0.3582131397973799</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="G105">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
-        <v>0.1961447182705072</v>
+        <v>0.370496169655402</v>
       </c>
       <c r="B106">
-        <v>0.5571177151087354</v>
+        <v>0.3913160346654415</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="G106">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
-        <v>0.3796903047955071</v>
+        <v>0.1466598925151367</v>
       </c>
       <c r="B107">
-        <v>0.3838098468853084</v>
+        <v>0.6170380012127357</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="G107">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
-        <v>0.2946100373611238</v>
+        <v>0.9306436143337543</v>
       </c>
       <c r="B108">
-        <v>0.4572200838635204</v>
+        <v>0.03530128312837777</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="G108">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
-        <v>0.8763255526023916</v>
+        <v>0.3749000174779076</v>
       </c>
       <c r="B109">
-        <v>0.0638773837779627</v>
+        <v>0.3877092051337799</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="G109">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
-        <v>0.09926506644513489</v>
+        <v>0.6211797199604159</v>
       </c>
       <c r="B110">
-        <v>0.6849364088868171</v>
+        <v>0.2118504456891346</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="G110">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
-        <v>0.1337506971622957</v>
+        <v>0.366148506738186</v>
       </c>
       <c r="B111">
-        <v>0.6342805759023789</v>
+        <v>0.3948979369245333</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="G111">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
-        <v>0.8240034557133604</v>
+        <v>0.9426365301467571</v>
       </c>
       <c r="B112">
-        <v>0.09225363910761919</v>
+        <v>0.02910529399591577</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="G112">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
-        <v>0.1009753721770933</v>
+        <v>0.699098249370057</v>
       </c>
       <c r="B113">
-        <v>0.6822337774761242</v>
+        <v>0.1638790462079921</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="G113">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
-        <v>0.3404254402191215</v>
+        <v>0.02660055036114761</v>
       </c>
       <c r="B114">
-        <v>0.4165401125877448</v>
+        <v>0.8369032484653738</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="G114">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
-        <v>0.5658173228666447</v>
+        <v>0.8370264504724862</v>
       </c>
       <c r="B115">
-        <v>0.2477917024742118</v>
+        <v>0.08510850344290211</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="G115">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
-        <v>0.5531217754581451</v>
+        <v>0.8713249010947184</v>
       </c>
       <c r="B116">
-        <v>0.2562784288067576</v>
+        <v>0.06655214334451531</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="G116">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
-        <v>0.4028440434003346</v>
+        <v>0.1125101320783956</v>
       </c>
       <c r="B117">
-        <v>0.3653000367099942</v>
+        <v>0.6645746997043969</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="G117">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
-        <v>0.765710111508462</v>
+        <v>0.4012143178681385</v>
       </c>
       <c r="B118">
-        <v>0.1249513662038766</v>
+        <v>0.3665851928884686</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="G118">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
-        <v>0.4004862861079584</v>
+        <v>0.3736393515005346</v>
       </c>
       <c r="B119">
-        <v>0.3671601418147254</v>
+        <v>0.3887395387393893</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="G119">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
-        <v>0.6854720571180347</v>
+        <v>0.2198428490066567</v>
       </c>
       <c r="B120">
-        <v>0.1720676011182829</v>
+        <v>0.5311259774665942</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="G120">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
-        <v>0.5157108727401617</v>
+        <v>0.3096172307845347</v>
       </c>
       <c r="B121">
-        <v>0.2818698775708112</v>
+        <v>0.4435674067916809</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="G121">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
-        <v>0.9217370632306894</v>
+        <v>0.9858829577972973</v>
       </c>
       <c r="B122">
-        <v>0.03992861555471339</v>
+        <v>0.007083609865716212</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="G122">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
-        <v>0.3521181894489767</v>
+        <v>0.499876539675235</v>
       </c>
       <c r="B123">
-        <v>0.4066045252540456</v>
+        <v>0.2929805238359872</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="G123">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
-        <v>0.9339843184111672</v>
+        <v>0.9354091061460321</v>
       </c>
       <c r="B124">
-        <v>0.03357135886234863</v>
+        <v>0.03283449909230529</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="G124">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
-        <v>0.5690896956793161</v>
+        <v>0.2083957474596679</v>
       </c>
       <c r="B125">
-        <v>0.245619661126222</v>
+        <v>0.5434961692825919</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="G125">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
-        <v>0.7337315630872928</v>
+        <v>0.2441790930779801</v>
       </c>
       <c r="B126">
-        <v>0.14341867689793</v>
+        <v>0.5058551901739935</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="G126">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
-        <v>0.2105978081640199</v>
+        <v>0.5625626915441452</v>
       </c>
       <c r="B127">
-        <v>0.5410906318628701</v>
+        <v>0.2499582068016841</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="G127">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
-        <v>0.8910755048594968</v>
+        <v>0.9093491027475689</v>
       </c>
       <c r="B128">
-        <v>0.05603204246145255</v>
+        <v>0.04640202247091108</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="G128">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
-        <v>0.1568616252162909</v>
+        <v>0.376336612811165</v>
       </c>
       <c r="B129">
-        <v>0.6039423965932595</v>
+        <v>0.3865371952504658</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="G129">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
-        <v>0.5459014076542438</v>
+        <v>0.08990168647852803</v>
       </c>
       <c r="B130">
-        <v>0.2611485889204489</v>
+        <v>0.700163900641487</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="G130">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
-        <v>0.6405223182636675</v>
+        <v>0.8704581695012764</v>
       </c>
       <c r="B131">
-        <v>0.1996736176636013</v>
+        <v>0.06701652238569822</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="G131">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
-        <v>0.24273752386176</v>
+        <v>0.4014412617193827</v>
       </c>
       <c r="B132">
-        <v>0.5073159999941546</v>
+        <v>0.3664060750611772</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="G132">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
-        <v>0.6991790174501128</v>
+        <v>0.9877249765413224</v>
       </c>
       <c r="B133">
-        <v>0.1638307483229769</v>
+        <v>0.006156462746110924</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="G133">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
-        <v>0.8046115878245169</v>
+        <v>0.8342170954976417</v>
       </c>
       <c r="B134">
-        <v>0.1029985575125774</v>
+        <v>0.08664514262109402</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="G134">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
-        <v>0.1250889563444303</v>
+        <v>0.823708444712781</v>
       </c>
       <c r="B135">
-        <v>0.646320828512011</v>
+        <v>0.09241615003748493</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="G135">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
-        <v>0.522335509569122</v>
+        <v>0.4629202730152209</v>
       </c>
       <c r="B136">
-        <v>0.2772721746264906</v>
+        <v>0.3196175538601684</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="G136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
-        <v>0.7274083238776462</v>
+        <v>0.4092638438770778</v>
       </c>
       <c r="B137">
-        <v>0.1471176377262535</v>
+        <v>0.3602626758762016</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="G137">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
-        <v>0.4413917617626176</v>
+        <v>0.9734700044427056</v>
       </c>
       <c r="B138">
-        <v>0.3356267903033585</v>
+        <v>0.01335416463519923</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="G138">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
-        <v>0.8911956292317942</v>
+        <v>0.7962644806566637</v>
       </c>
       <c r="B139">
-        <v>0.05596841724876911</v>
+        <v>0.1076634711855265</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="G139">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
-        <v>0.05524122493369321</v>
+        <v>0.6617899716884004</v>
       </c>
       <c r="B140">
-        <v>0.7649654813996607</v>
+        <v>0.1864952540467878</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="G140">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
-        <v>0.5998143642720524</v>
+        <v>0.5521499068608988</v>
       </c>
       <c r="B141">
-        <v>0.2255231673755164</v>
+        <v>0.2569320980819459</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="G141">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
-        <v>0.08172758115027901</v>
+        <v>0.6115889306182342</v>
       </c>
       <c r="B142">
-        <v>0.7141196383969703</v>
+        <v>0.2179584853614009</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="G142">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
-        <v>0.356058111222152</v>
+        <v>0.847020316867493</v>
       </c>
       <c r="B143">
-        <v>0.4032939490652436</v>
+        <v>0.07966293301448901</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="G143">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
-        <v>0.8170122041859502</v>
+        <v>0.07753721254561596</v>
       </c>
       <c r="B144">
-        <v>0.09611272595198561</v>
+        <v>0.7215449541746173</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="G144">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
-        <v>0.5212830835456351</v>
+        <v>0.781560332323212</v>
       </c>
       <c r="B145">
-        <v>0.2780006346639665</v>
+        <v>0.1159409904744978</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="G145">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
-        <v>0.6923901825466271</v>
+        <v>0.4658894588532887</v>
       </c>
       <c r="B146">
-        <v>0.1679001366743129</v>
+        <v>0.3174390438552109</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="G146">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
-        <v>0.4545440717459845</v>
+        <v>0.5815004095740344</v>
       </c>
       <c r="B147">
-        <v>0.3258011630490716</v>
+        <v>0.2374382585167059</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="G147">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
-        <v>0.7768041173208267</v>
+        <v>0.3236658732988745</v>
       </c>
       <c r="B148">
-        <v>0.1186350827717122</v>
+        <v>0.4310835972668089</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="G148">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
-        <v>0.05180275803103607</v>
+        <v>0.4198240984048464</v>
       </c>
       <c r="B149">
-        <v>0.7723978074994969</v>
+        <v>0.3520616553985663</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="G149">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
-        <v>0.4059028915844769</v>
+        <v>0.7461429581631285</v>
       </c>
       <c r="B150">
-        <v>0.3628949132329291</v>
+        <v>4.39364964440205</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
-        <v>0.3623456727772087</v>
+        <v>0.003815979770406819</v>
       </c>
       <c r="B151">
-        <v>0.3980484464865891</v>
+        <v>5.322615638862812</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
-        <v>0.1995984634862966</v>
+        <v>0.3759248356733389</v>
       </c>
       <c r="B152">
-        <v>0.5532355615245361</v>
+        <v>4.001224953004978</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
-        <v>0.6373312101199615</v>
+        <v>0.5781852173864515</v>
       </c>
       <c r="B153">
-        <v>0.2016697361868576</v>
+        <v>3.459651987187821</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
-        <v>0.9482598189085978</v>
+        <v>0.06561414956467504</v>
       </c>
       <c r="B154">
-        <v>0.02621366876064757</v>
+        <v>4.743163703562312</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
-        <v>0.6039200531255712</v>
+        <v>0.7377943138405352</v>
       </c>
       <c r="B155">
-        <v>0.2228770669156834</v>
+        <v>3.503407577518629</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
-        <v>0.8230195202648272</v>
+        <v>0.7841868118595369</v>
       </c>
       <c r="B156">
-        <v>0.09279576705968395</v>
+        <v>4.077266102465201</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
-        <v>0.5726876567731856</v>
+        <v>0.3157511748945246</v>
       </c>
       <c r="B157">
-        <v>0.2432387055529428</v>
+        <v>4.186246495913114</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
-        <v>0.2991885936753997</v>
+        <v>0.7916741691191105</v>
       </c>
       <c r="B158">
-        <v>0.4530186532655801</v>
+        <v>3.973048567416412</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
-        <v>0.3379402014177523</v>
+        <v>0.02363235508618577</v>
       </c>
       <c r="B159">
-        <v>0.4186737564690957</v>
+        <v>4.948716494850234</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
-        <v>0.0352387547385532</v>
+        <v>0.4347608971029236</v>
       </c>
       <c r="B160">
-        <v>0.8122801162941091</v>
+        <v>3.876079161681264</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>0.4397966038123445</v>
+        <v>0.9585107613536576</v>
       </c>
       <c r="B161">
-        <v>0.3368283752961496</v>
+        <v>3.018814497339848</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>0.2868181816600357</v>
+        <v>0.0768791589671125</v>
       </c>
       <c r="B162">
-        <v>0.4644459115457752</v>
+        <v>5.13927207328509</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>0.472479356482958</v>
+        <v>0.3996779673962666</v>
       </c>
       <c r="B163">
-        <v>0.312628661869759</v>
+        <v>4.003925056263699</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>0.7327682687216185</v>
+        <v>0.1979967354058844</v>
       </c>
       <c r="B164">
-        <v>3.59022600159684</v>
+        <v>4.865010133535817</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
@@ -3213,18 +3453,21 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>0.6575656293545771</v>
+        <v>0.6840373636491902</v>
       </c>
       <c r="B165">
-        <v>3.497725055423905</v>
+        <v>3.931324981078326</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -3233,18 +3476,21 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>0.4101938483869715</v>
+        <v>0.3335209561499745</v>
       </c>
       <c r="B166">
-        <v>3.863470223707111</v>
+        <v>3.796356075982146</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -3255,16 +3501,19 @@
       <c r="E166">
         <v>2</v>
       </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="G166">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>0.8912014050510365</v>
+        <v>0.6141582002543653</v>
       </c>
       <c r="B167">
-        <v>3.491071833053993</v>
+        <v>4.155332442596072</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -3273,18 +3522,21 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>0.4695425288569898</v>
+        <v>0.9639350558964314</v>
       </c>
       <c r="B168">
-        <v>3.71039729021839</v>
+        <v>3.600144920273342</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -3293,18 +3545,21 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>0.2451174605885291</v>
+        <v>0.7608734309913918</v>
       </c>
       <c r="B169">
-        <v>3.856678967511015</v>
+        <v>3.850910451861203</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -3313,18 +3568,21 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>0.5463990377050485</v>
+        <v>0.4424143324217452</v>
       </c>
       <c r="B170">
-        <v>3.993232672284106</v>
+        <v>3.954482682989658</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -3335,16 +3593,19 @@
       <c r="E170">
         <v>5</v>
       </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
       <c r="G170">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>0.984787620987479</v>
+        <v>0.6137484618947239</v>
       </c>
       <c r="B171">
-        <v>3.02250121176057</v>
+        <v>3.564868670751548</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -3353,18 +3614,21 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>0.2987108542169309</v>
+        <v>0.4472832821944611</v>
       </c>
       <c r="B172">
-        <v>4.092126758004547</v>
+        <v>4.153158849091847</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
@@ -3373,18 +3637,21 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>0.03711575577317872</v>
+        <v>0.5268706079871545</v>
       </c>
       <c r="B173">
-        <v>5.211936494202163</v>
+        <v>3.280178705544956</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3393,18 +3660,21 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>0.1921090278562292</v>
+        <v>0.4103895052717977</v>
       </c>
       <c r="B174">
-        <v>4.434083633523943</v>
+        <v>4.127868133476395</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -3413,18 +3683,21 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>0.9360394865829356</v>
+        <v>0.526319463099268</v>
       </c>
       <c r="B175">
-        <v>3.3553380857229</v>
+        <v>3.884253982318877</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -3435,16 +3708,19 @@
       <c r="E175">
         <v>5</v>
       </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
       <c r="G175">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>0.8750303916046499</v>
+        <v>0.2449685976111227</v>
       </c>
       <c r="B176">
-        <v>3.058705782701865</v>
+        <v>3.633618154897802</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -3453,18 +3729,21 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>0.3511597020570844</v>
+        <v>0.1510452136447089</v>
       </c>
       <c r="B177">
-        <v>4.366863778627732</v>
+        <v>4.122467204595704</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -3473,18 +3752,21 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>0.8970808079437</v>
+        <v>0.4141296606609111</v>
       </c>
       <c r="B178">
-        <v>3.771764921924093</v>
+        <v>3.90689548358739</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -3493,18 +3775,21 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>0.5278839937820905</v>
+        <v>0.5420070285006862</v>
       </c>
       <c r="B179">
-        <v>3.299475525378627</v>
+        <v>3.514462382280183</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -3513,18 +3798,21 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>0.3952364257660708</v>
+        <v>0.5542650677624407</v>
       </c>
       <c r="B180">
-        <v>3.690225942478029</v>
+        <v>3.815864613735631</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -3533,18 +3821,21 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>0.09252999958761354</v>
+        <v>0.1214801211295906</v>
       </c>
       <c r="B181">
-        <v>4.272392141441314</v>
+        <v>3.963356965373763</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3555,16 +3846,19 @@
       <c r="E181">
         <v>1</v>
       </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
       <c r="G181">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>0.428183620769313</v>
+        <v>0.7266516488895538</v>
       </c>
       <c r="B182">
-        <v>4.288636476825789</v>
+        <v>3.393574531070576</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -3573,18 +3867,21 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>0.7537062728000377</v>
+        <v>0.346350877477394</v>
       </c>
       <c r="B183">
-        <v>3.849587046867771</v>
+        <v>3.586996077465953</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -3593,18 +3890,21 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>0.7295377480780371</v>
+        <v>0.8979781273425201</v>
       </c>
       <c r="B184">
-        <v>2.815864750626274</v>
+        <v>2.715377903171478</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -3613,18 +3913,21 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>0.5276943213504517</v>
+        <v>0.2189544850125534</v>
       </c>
       <c r="B185">
-        <v>2.961467684218249</v>
+        <v>4.529629566117658</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
@@ -3633,18 +3936,21 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>0.7511413685105497</v>
+        <v>0.8298079183649829</v>
       </c>
       <c r="B186">
-        <v>3.68335917078225</v>
+        <v>3.001354783919817</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3653,18 +3959,21 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>0.02805866919431654</v>
+        <v>0.8739065348484488</v>
       </c>
       <c r="B187">
-        <v>6.338354319173918</v>
+        <v>3.133816030087929</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -3673,18 +3982,21 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>0.02292849380916351</v>
+        <v>0.2554549202049163</v>
       </c>
       <c r="B188">
-        <v>5.32866363093782</v>
+        <v>4.537700153740426</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -3693,18 +4005,21 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>0.9530699175797953</v>
+        <v>0.2736896172805476</v>
       </c>
       <c r="B189">
-        <v>3.514366306280726</v>
+        <v>3.907744182414835</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3713,18 +4028,21 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>0.4849235595813414</v>
+        <v>0.3119626594297354</v>
       </c>
       <c r="B190">
-        <v>3.86429310729168</v>
+        <v>4.123675487370811</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -3735,16 +4053,19 @@
       <c r="E190">
         <v>3</v>
       </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
       <c r="G190">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>0.3519854485956665</v>
+        <v>0.07959068828506166</v>
       </c>
       <c r="B191">
-        <v>4.343902424784827</v>
+        <v>5.34729572070579</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -3753,18 +4074,21 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>0.2307301804390203</v>
+        <v>0.09178080058722526</v>
       </c>
       <c r="B192">
-        <v>4.498141749012566</v>
+        <v>4.901070208730482</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -3773,18 +4097,21 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>0.4991307025326711</v>
+        <v>0.211662589081497</v>
       </c>
       <c r="B193">
-        <v>3.061872098994143</v>
+        <v>4.735922110918719</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -3793,18 +4120,21 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>0.4054399125841099</v>
+        <v>0.435798373809553</v>
       </c>
       <c r="B194">
-        <v>4.019534490083599</v>
+        <v>3.494618919353928</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -3813,18 +4143,21 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>0.5926529856626187</v>
+        <v>0.8954073285238801</v>
       </c>
       <c r="B195">
-        <v>3.172214816285807</v>
+        <v>3.083229354268421</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -3833,18 +4166,21 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>0.682218124655251</v>
+        <v>0.8403544120696714</v>
       </c>
       <c r="B196">
-        <v>3.747241220202868</v>
+        <v>2.914811251723867</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -3853,18 +4189,21 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>0.06324248463315552</v>
+        <v>0.2136682967009531</v>
       </c>
       <c r="B197">
-        <v>5.488124933347478</v>
+        <v>4.340726565428912</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -3873,18 +4212,21 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>0.6600822231072573</v>
+        <v>0.5743366094903963</v>
       </c>
       <c r="B198">
-        <v>3.344305365475498</v>
+        <v>3.58988280816719</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -3893,18 +4235,21 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>0.2286651416195471</v>
+        <v>0.6365248271965018</v>
       </c>
       <c r="B199">
-        <v>4.574701043996511</v>
+        <v>3.603535552436573</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -3913,18 +4258,21 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
       </c>
       <c r="G199">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>0.5407795077719666</v>
+        <v>0.7575119337040321</v>
       </c>
       <c r="B200">
-        <v>3.773783609737011</v>
+        <v>2.840900425760823</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -3933,18 +4281,21 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>0.7033671822905677</v>
+        <v>0.2897224395475307</v>
       </c>
       <c r="B201">
-        <v>3.61338726374373</v>
+        <v>4.130769012075318</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -3953,18 +4304,21 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>0.9854977871476945</v>
+        <v>0.4003829098315256</v>
       </c>
       <c r="B202">
-        <v>2.782341155488827</v>
+        <v>3.625285051600831</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -3973,18 +4327,21 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>0.2621793540630705</v>
+        <v>0.6450526149863041</v>
       </c>
       <c r="B203">
-        <v>3.93639274880842</v>
+        <v>3.581696800437468</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -3993,18 +4350,21 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>0.245093513890117</v>
+        <v>0.3448431312717826</v>
       </c>
       <c r="B204">
-        <v>4.73346188296355</v>
+        <v>4.504679870921684</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -4013,18 +4373,21 @@
         <v>0</v>
       </c>
       <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
         <v>6</v>
-      </c>
-      <c r="G204">
-        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>0.7160900869759296</v>
+        <v>0.07104847661691072</v>
       </c>
       <c r="B205">
-        <v>3.51507111912996</v>
+        <v>5.214169012458576</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -4033,18 +4396,21 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>0.2036620394026961</v>
+        <v>0.6731128649635076</v>
       </c>
       <c r="B206">
-        <v>4.149905608040886</v>
+        <v>3.843248911254524</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -4053,18 +4419,21 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>0.2335411715736844</v>
+        <v>0.6997229286168259</v>
       </c>
       <c r="B207">
-        <v>4.743355536469108</v>
+        <v>3.713607319775636</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -4073,18 +4442,21 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>0.25183627858746</v>
+        <v>0.7360212226441739</v>
       </c>
       <c r="B208">
-        <v>4.112858529198851</v>
+        <v>3.521695494354525</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -4093,18 +4465,21 @@
         <v>0</v>
       </c>
       <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
         <v>2</v>
-      </c>
-      <c r="G208">
-        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>0.1574149801145754</v>
+        <v>0.1972659246597687</v>
       </c>
       <c r="B209">
-        <v>4.133582379155546</v>
+        <v>3.755766773405585</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -4115,16 +4490,19 @@
       <c r="E209">
         <v>1</v>
       </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
       <c r="G209">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>0.9825740227509927</v>
+        <v>0.7164071665621778</v>
       </c>
       <c r="B210">
-        <v>2.807156073774066</v>
+        <v>2.678175984901448</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -4133,18 +4511,21 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>0.3817545164856768</v>
+        <v>0.7818669100039105</v>
       </c>
       <c r="B211">
-        <v>4.08085080889854</v>
+        <v>3.455672182096034</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -4153,18 +4534,21 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>0.7900318835962057</v>
+        <v>0.2951057679314673</v>
       </c>
       <c r="B212">
-        <v>2.99754171757653</v>
+        <v>3.273404450416972</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -4173,18 +4557,21 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>0.5000774263760718</v>
+        <v>0.1235672155919885</v>
       </c>
       <c r="B213">
-        <v>3.423778144781973</v>
+        <v>4.258343633711123</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -4195,16 +4582,19 @@
       <c r="E213">
         <v>2</v>
       </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
       <c r="G213">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>0.1510630054217297</v>
+        <v>0.7470914117603334</v>
       </c>
       <c r="B214">
-        <v>4.697755442336134</v>
+        <v>3.408071693590142</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -4213,18 +4603,21 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>0.3421116457800127</v>
+        <v>0.6407762713005599</v>
       </c>
       <c r="B215">
-        <v>4.520203704042059</v>
+        <v>3.822556025555312</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -4235,16 +4628,19 @@
       <c r="E215">
         <v>7</v>
       </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
       <c r="G215">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>0.2713876439948258</v>
+        <v>0.6909593118177432</v>
       </c>
       <c r="B216">
-        <v>4.519911033546451</v>
+        <v>4.257871055304362</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -4253,18 +4649,21 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>0.6234172522467535</v>
+        <v>0.6434911367214305</v>
       </c>
       <c r="B217">
-        <v>4.082948319460589</v>
+        <v>3.577821291550229</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -4275,16 +4674,19 @@
       <c r="E217">
         <v>6</v>
       </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
       <c r="G217">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>0.502635965318882</v>
+        <v>0.5938085719551387</v>
       </c>
       <c r="B218">
-        <v>3.543710538927658</v>
+        <v>3.733111056365793</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -4293,18 +4695,21 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>0.7363141280575506</v>
+        <v>0.6182932311300151</v>
       </c>
       <c r="B219">
-        <v>3.259019198258496</v>
+        <v>3.567996469429174</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -4313,18 +4718,21 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>0.2641036346713512</v>
+        <v>0.3858503379386189</v>
       </c>
       <c r="B220">
-        <v>4.355360691858468</v>
+        <v>3.911180022230169</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -4333,18 +4741,21 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>0.3124143190677792</v>
+        <v>0.6309820306771411</v>
       </c>
       <c r="B221">
-        <v>4.21880280880641</v>
+        <v>2.706501859439112</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -4353,18 +4764,21 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>0.8721321349816732</v>
+        <v>0.793744498769718</v>
       </c>
       <c r="B222">
-        <v>2.497868038530282</v>
+        <v>3.233076906716851</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -4373,18 +4787,21 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>0.2906584329424212</v>
+        <v>0.2405390038049231</v>
       </c>
       <c r="B223">
-        <v>4.077560346908098</v>
+        <v>4.803965349934816</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -4393,18 +4810,21 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>0.474010003843119</v>
+        <v>0.1135542060825456</v>
       </c>
       <c r="B224">
-        <v>3.1636364375404</v>
+        <v>4.722395694589923</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -4415,16 +4835,19 @@
       <c r="E224">
         <v>1</v>
       </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
       <c r="G224">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>0.05190675058332028</v>
+        <v>0.7730120036165748</v>
       </c>
       <c r="B225">
-        <v>5.614176251297214</v>
+        <v>4.102298524013801</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -4433,18 +4856,21 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>0.8825263400938788</v>
+        <v>0.9915780035211045</v>
       </c>
       <c r="B226">
-        <v>3.40409045167953</v>
+        <v>2.700453207225741</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -4453,18 +4879,21 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>0.2269519272530502</v>
+        <v>0.3387872109354799</v>
       </c>
       <c r="B227">
-        <v>4.26636695950991</v>
+        <v>3.784548862171375</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -4473,18 +4902,21 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>0.7736249784934768</v>
+        <v>0.05553538944777903</v>
       </c>
       <c r="B228">
-        <v>3.284328509289546</v>
+        <v>5.03917688555503</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -4493,18 +4925,21 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>0.1656303533669479</v>
+        <v>0.7765240641230637</v>
       </c>
       <c r="B229">
-        <v>4.135626955745177</v>
+        <v>3.786092993035141</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -4513,229 +4948,12 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230">
-        <v>0.9000144882948932</v>
-      </c>
-      <c r="B230">
-        <v>3.371274366423957</v>
-      </c>
-      <c r="C230" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
-        <v>5</v>
-      </c>
-      <c r="G230">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231">
-        <v>0.3920012839466049</v>
-      </c>
-      <c r="B231">
-        <v>4.469419353740208</v>
-      </c>
-      <c r="C231" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
-        <v>7</v>
-      </c>
-      <c r="G231">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232">
-        <v>0.4964276558744412</v>
-      </c>
-      <c r="B232">
-        <v>3.794353731342894</v>
-      </c>
-      <c r="C232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <v>3</v>
-      </c>
-      <c r="G232">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233">
-        <v>0.1535835187072297</v>
-      </c>
-      <c r="B233">
-        <v>4.627741472195334</v>
-      </c>
-      <c r="C233" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
-        <v>2</v>
-      </c>
-      <c r="G233">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234">
-        <v>0.416950939523916</v>
-      </c>
-      <c r="B234">
-        <v>3.404125478038937</v>
-      </c>
-      <c r="C234" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="G234">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235">
-        <v>0.921480696601191</v>
-      </c>
-      <c r="B235">
-        <v>3.235467931116196</v>
-      </c>
-      <c r="C235" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <v>4</v>
-      </c>
-      <c r="G235">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236">
-        <v>0.3541772362300414</v>
-      </c>
-      <c r="B236">
-        <v>3.909563466994007</v>
-      </c>
-      <c r="C236" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <v>2</v>
-      </c>
-      <c r="G236">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237">
-        <v>0.06747800872154097</v>
-      </c>
-      <c r="B237">
-        <v>4.558536625881583</v>
-      </c>
-      <c r="C237" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238">
-        <v>0.9216630163319949</v>
-      </c>
-      <c r="B238">
-        <v>3.593915960402813</v>
-      </c>
-      <c r="C238" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
-        <v>7</v>
-      </c>
-      <c r="G238">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239">
-        <v>0.4545054423412268</v>
-      </c>
-      <c r="B239">
-        <v>3.820369440268827</v>
-      </c>
-      <c r="C239" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239">
-        <v>2</v>
-      </c>
-      <c r="G239">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240">
-        <v>0.428111791492773</v>
-      </c>
-      <c r="B240">
-        <v>3.93329052573623</v>
-      </c>
-      <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <v>3</v>
-      </c>
-      <c r="G240">
         <v>79</v>
       </c>
     </row>
